--- a/documents/analyse_uml/usecase_textuel/use_case_administrer/Voiradmin.xlsx
+++ b/documents/analyse_uml/usecase_textuel/use_case_administrer/Voiradmin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\symfony\Quideance\documents\analyse_uml\usecase_textuel\use_case_administrer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{520F2EA5-F655-4439-8048-5B304FBB7843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1CE829-7C66-40D7-A608-8C654D40D28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="15630" xr2:uid="{451E0427-0AC5-4383-A93C-FFC0F176BB99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{451E0427-0AC5-4383-A93C-FFC0F176BB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
